--- a/data/xlsx_edit/physrost02.xlsx
+++ b/data/xlsx_edit/physrost02.xlsx
@@ -142,7 +142,7 @@
     <t xml:space="preserve">Tuskegee U</t>
   </si>
   <si>
-    <t xml:space="preserve">Alaska-U of</t>
+    <t xml:space="preserve">Alaska-U of, Fairbanks</t>
   </si>
   <si>
     <t xml:space="preserve">AK</t>
@@ -4149,7 +4149,7 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/xlsx_edit/physrost02.xlsx
+++ b/data/xlsx_edit/physrost02.xlsx
@@ -1165,13 +1165,13 @@
     <t xml:space="preserve">101</t>
   </si>
   <si>
-    <t xml:space="preserve">Indiana U Purdue U Ft Wayne</t>
+    <t xml:space="preserve">Indiana U Purdue U-Ft Wayne</t>
   </si>
   <si>
     <t xml:space="preserve">490</t>
   </si>
   <si>
-    <t xml:space="preserve">Indiana U Purdue U Indpls</t>
+    <t xml:space="preserve">Indiana U Purdue U-Indpls</t>
   </si>
   <si>
     <t xml:space="preserve">Indianapolis-U of</t>
@@ -1192,13 +1192,13 @@
     <t xml:space="preserve">898</t>
   </si>
   <si>
-    <t xml:space="preserve">Purdue U Calumet</t>
+    <t xml:space="preserve">Purdue U-Calumet</t>
   </si>
   <si>
     <t xml:space="preserve">472</t>
   </si>
   <si>
-    <t xml:space="preserve">Purdue U West Lafayette</t>
+    <t xml:space="preserve">Purdue U-West Lafayette</t>
   </si>
   <si>
     <t xml:space="preserve">3676</t>
@@ -4148,14 +4148,14 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A361" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A205" activeCellId="0" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.55"/>

--- a/data/xlsx_edit/physrost02.xlsx
+++ b/data/xlsx_edit/physrost02.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Tuskegee U</t>
   </si>
   <si>
-    <t xml:space="preserve">Alaska-U of, Fairbranks</t>
+    <t xml:space="preserve">Alaska-U of, Fairbanks </t>
   </si>
   <si>
     <t xml:space="preserve">AK</t>
@@ -2584,7 +2584,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2599,6 +2599,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2795,8 +2799,8 @@
   </sheetPr>
   <dimension ref="A1:O768"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A514" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A535" activeCellId="0" sqref="A535"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3209,7 +3213,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
